--- a/arranged_dataset/review/cbs_ph_review.xlsx
+++ b/arranged_dataset/review/cbs_ph_review.xlsx
@@ -980,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F2">
-        <v>-0.05418640550415174</v>
+        <v>0.9325480387264513</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -997,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F3">
-        <v>-0.1037615458915829</v>
+        <v>1.785736204794142</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -1014,10 +1014,10 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F4">
-        <v>0.134766972076448</v>
+        <v>1.735271251323481</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -1031,10 +1031,10 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F5">
-        <v>0.1591010370337604</v>
+        <v>2.048598787719485</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -1048,10 +1048,10 @@
         <v>3.5</v>
       </c>
       <c r="E6">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F6">
-        <v>0.1518090224239149</v>
+        <v>1.954706173514887</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -1065,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F7">
-        <v>0.1781286150445234</v>
+        <v>2.293599536758069</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -1082,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F8">
-        <v>0.134766972076448</v>
+        <v>1.735271251323481</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -1099,10 +1099,10 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F9">
-        <v>0.0634506929084574</v>
+        <v>0.8169966393408546</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -1116,10 +1116,10 @@
         <v>2.5</v>
       </c>
       <c r="E10">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F10">
-        <v>0.1676812165433539</v>
+        <v>2.159077925187577</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -1133,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F11">
-        <v>0.1781286150445234</v>
+        <v>2.293599536758069</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -1150,10 +1150,10 @@
         <v>28.5</v>
       </c>
       <c r="E12">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F12">
-        <v>0.04209894219820859</v>
+        <v>0.5420696405217162</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -1167,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F13">
-        <v>-0.1161708358986022</v>
+        <v>1.999300085814944</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -1184,10 +1184,10 @@
         <v>97.3</v>
       </c>
       <c r="E14">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F14">
-        <v>-0.1783312240050384</v>
+        <v>-2.126778177484088</v>
       </c>
     </row>
   </sheetData>
